--- a/xlsxanalize/scr/data/reports/26.07.17-27.07.17 (сутки) отчет Бар лесной.xlsx
+++ b/xlsxanalize/scr/data/reports/26.07.17-27.07.17 (сутки) отчет Бар лесной.xlsx
@@ -208,7 +208,7 @@
     <t>Лукьяненко</t>
   </si>
   <si>
-    <t>26.07.2017-27.07.2017 (24)</t>
+    <t>27.07.2017-28.07.2017 (24)</t>
   </si>
 </sst>
 </file>
